--- a/biology/Zoologie/Grallaire_buissonnière/Grallaire_buissonnière.xlsx
+++ b/biology/Zoologie/Grallaire_buissonnière/Grallaire_buissonnière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_buissonni%C3%A8re</t>
+          <t>Grallaire_buissonnière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylopezus dives
 La Grallaire buissonière (Hylopezus dives) est une espèce d'oiseau de la famille des Grallariidae vivant en Amérique centrale et du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_buissonni%C3%A8re</t>
+          <t>Grallaire_buissonnière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 44 g[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte mesure environ 14 cm pour un poids de 44 g.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grallaire_buissonni%C3%A8re</t>
+          <t>Grallaire_buissonnière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Honduras, au Nicaragua, au Costa Rica, au Panama et en Colombie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Honduras, au Nicaragua, au Costa Rica, au Panama et en Colombie.
 Son habitat naturel est subtropical ou des forêts tropicales humides[réf. nécessaire].
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grallaire_buissonni%C3%A8re</t>
+          <t>Grallaire_buissonnière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence du Congrès ornithologique international  (version 6.2, 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence du Congrès ornithologique international  (version 6.2, 2016) :
 H. d. dives (Salvin, 1865) - est de l'Honduras jusqu'au Costa Rica
 H. d. flammulatus Griscom, 1928 - nord-ouest du Panama
 H. d. barbacoae Chapman, 1914 - est du Panama et ouest de la Colombie</t>
